--- a/최종발표/(중간)도메인정의서.xlsx
+++ b/최종발표/(중간)도메인정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF494C-DB83-4B5E-B66F-916FD7DECC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C86125-940A-40E5-B79D-2B4B08AD63F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
+    <workbookView xWindow="28275" yWindow="2190" windowWidth="14400" windowHeight="7455" activeTab="1" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="419">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4559,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8409ED5-2FF4-4103-9B83-5B74499694A6}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4827,21 +4827,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -5098,21 +5088,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
@@ -5306,21 +5286,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
